--- a/dev-docs/桌面端开发计划表.xlsx
+++ b/dev-docs/桌面端开发计划表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\SecondGrade\Last\实训\p2p-chat-specification\dev-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\docs\p2p-chat-specification\dev-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC7CCBB-6B1D-4D03-96C1-0C2CE52E5FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5A0073-AADD-480B-905C-D0BCDE110AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件1编码开发计划表 " sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>星期六
 星期天</t>
@@ -233,12 +233,36 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>路由表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接封装</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>传播算法</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹晶田</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -306,6 +330,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -483,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +571,12 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -863,80 +898,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:L15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
@@ -946,11 +981,11 @@
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="28"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -962,16 +997,28 @@
       <c r="D4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="E4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="21">
+        <v>7.06</v>
+      </c>
+      <c r="I4" s="21">
+        <v>7.12</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="10" t="s">
         <v>38</v>
       </c>
@@ -981,16 +1028,28 @@
       <c r="D5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="E5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="21">
+        <v>7.06</v>
+      </c>
+      <c r="I5" s="21">
+        <v>7.12</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="18" t="s">
         <v>39</v>
       </c>
@@ -1000,16 +1059,28 @@
       <c r="D6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="E6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="21">
+        <v>7.06</v>
+      </c>
+      <c r="I6" s="21">
+        <v>7.12</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="92" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:12" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
       <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
@@ -1022,15 +1093,25 @@
       <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="F7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="21">
+        <v>7.06</v>
+      </c>
+      <c r="I7" s="21">
+        <v>7.12</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1051,7 +1132,7 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1151,7 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1091,7 +1172,7 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1110,8 +1191,8 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1130,8 +1211,8 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:12" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1253,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>

--- a/dev-docs/桌面端开发计划表.xlsx
+++ b/dev-docs/桌面端开发计划表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\docs\p2p-chat-specification\dev-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebstormProjects\p2p-chat-specification\dev-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5A0073-AADD-480B-905C-D0BCDE110AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="附件1编码开发计划表 " sheetId="3" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>星期六
 星期天</t>
@@ -137,10 +136,6 @@
   </si>
   <si>
     <t>在频道内添加ai机器人，通过特定文字的触发，实现与用户的简单互动如成语接龙等</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送高质量图片会挤爆带宽：自动压缩图片</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -257,12 +252,52 @@
     <t>一周</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>用户恶意发送大量文字，通过js判定文字长度解决</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘剑宇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue.js,electron</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层分片发送</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送高质量图片会挤爆带宽：分多次传输，最后拼接</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成语数组过长，影响代码质量，通过导入js文件解决</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>js逻辑控制</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘剑宇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue.js,electron</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -335,6 +370,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -512,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,6 +619,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,14 +939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
@@ -918,60 +962,60 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+    <row r="1" spans="1:12" ht="52.5" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:12" ht="18" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+    <row r="3" spans="1:12" ht="18" customHeight="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
@@ -981,30 +1025,30 @@
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="C4" s="10">
         <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="21">
         <v>7.06</v>
@@ -1013,29 +1057,29 @@
         <v>7.12</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A5" s="35"/>
       <c r="B5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="21">
         <v>7.06</v>
@@ -1044,29 +1088,29 @@
         <v>7.12</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A6" s="35"/>
       <c r="B6" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="G6" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="21">
         <v>7.06</v>
@@ -1075,29 +1119,29 @@
         <v>7.12</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:12" ht="91.95" customHeight="1">
+      <c r="A7" s="30"/>
       <c r="B7" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="21">
         <v>7.06</v>
@@ -1106,12 +1150,12 @@
         <v>7.12</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A8" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1123,16 +1167,28 @@
       <c r="D8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="E8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>7.07</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7.07</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A9" s="32"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1142,16 +1198,28 @@
       <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="E9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>7.07</v>
+      </c>
+      <c r="I9" s="6">
+        <v>7.07</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A10" s="32"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1161,18 +1229,28 @@
       <c r="D10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="F10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="G10" s="12">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7.07</v>
+      </c>
+      <c r="I10" s="6">
+        <v>7.08</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:12" ht="91.5" customHeight="1">
+      <c r="A11" s="32"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1184,15 +1262,15 @@
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:12" ht="59.55" customHeight="1">
+      <c r="A12" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1211,8 +1289,8 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+    <row r="13" spans="1:12" ht="49.95" customHeight="1">
+      <c r="A13" s="32"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1224,14 +1302,14 @@
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="48" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
@@ -1246,14 +1324,14 @@
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="57.6">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -1266,12 +1344,24 @@
       <c r="D15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="E15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6">
+        <v>7.09</v>
+      </c>
+      <c r="I15" s="6">
+        <v>7.09</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/dev-docs/桌面端开发计划表.xlsx
+++ b/dev-docs/桌面端开发计划表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebstormProjects\p2p-chat-specification\dev-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\repositories\p2p-chat-specification\dev-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E0C076-8367-4E93-A166-E347C7CD08A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件1编码开发计划表 " sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>星期六
 星期天</t>
@@ -140,10 +141,6 @@
   </si>
   <si>
     <t>变音后语音听不清：寻找合适的音源以及变音程序；发送太长的语音挤爆带宽：限制语音长度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>频道重名：禁止重名</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -292,12 +289,88 @@
     <t>vue.js,electron</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>vue渲染，js逻辑控制</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表渲染失败：使用set函数重新刷新</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表渲染失败：使用set函数重新刷新。频道重名：禁止重名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王嘉伟、陈晨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面布局与展示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatMain</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatList</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>newChannel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天的主界面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道列表界面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建频道界面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息的实时刷新与上移</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘剑宇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王嘉伟</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -553,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,6 +695,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -939,14 +1018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
@@ -962,60 +1041,60 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="52.5" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
+    <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1025,30 +1104,30 @@
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="C4" s="10">
         <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="21">
         <v>7.06</v>
@@ -1057,29 +1136,29 @@
         <v>7.12</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
       <c r="B5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="21">
         <v>7.06</v>
@@ -1088,29 +1167,29 @@
         <v>7.12</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A6" s="35"/>
+    <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
       <c r="B6" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="G6" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="21">
         <v>7.06</v>
@@ -1119,29 +1198,29 @@
         <v>7.12</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="91.95" customHeight="1">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:12" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
       <c r="B7" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="21">
         <v>7.06</v>
@@ -1150,226 +1229,353 @@
         <v>7.12</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:12" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="23">
+        <v>5</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="24">
+        <v>7.06</v>
+      </c>
+      <c r="I8" s="24">
+        <v>7.08</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="23">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="24">
+        <v>7.06</v>
+      </c>
+      <c r="I9" s="24">
+        <v>7.08</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="23">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="24">
+        <v>7.06</v>
+      </c>
+      <c r="I10" s="24">
+        <v>7.08</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="E11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>7.07</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7.07</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="4">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4">
-        <v>7.07</v>
-      </c>
-      <c r="I8" s="4">
-        <v>7.07</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="4" t="s">
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>7.07</v>
-      </c>
-      <c r="I9" s="6">
-        <v>7.07</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="12">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6">
-        <v>7.07</v>
-      </c>
-      <c r="I10" s="6">
-        <v>7.08</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="91.5" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" ht="59.55" customHeight="1">
-      <c r="A12" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" ht="49.95" customHeight="1">
-      <c r="A13" s="32"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>7.07</v>
+      </c>
+      <c r="I12" s="6">
+        <v>7.07</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="F13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" ht="48" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6">
+        <v>56</v>
+      </c>
+      <c r="G13" s="12">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6">
+        <v>7.07</v>
+      </c>
+      <c r="I13" s="6">
+        <v>7.08</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4">
         <v>5</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="57.6">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="6">
+        <v>7.06</v>
+      </c>
+      <c r="I15" s="6">
+        <v>7.07</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="6">
+        <v>7.07</v>
+      </c>
+      <c r="I16" s="6">
+        <v>7.08</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="6">
+        <v>7.06</v>
+      </c>
+      <c r="I17" s="6">
+        <v>7.07</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C18" s="6">
         <v>5</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7.09</v>
+      </c>
+      <c r="I18" s="6">
+        <v>7.09</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="6">
-        <v>4</v>
-      </c>
-      <c r="H15" s="6">
-        <v>7.09</v>
-      </c>
-      <c r="I15" s="6">
-        <v>7.09</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="A4:A7"/>
@@ -1377,6 +1583,7 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.35416666666666702" top="0.39305555555555599" bottom="0.31458333333333299" header="0.3" footer="0.3"/>

--- a/dev-docs/桌面端开发计划表.xlsx
+++ b/dev-docs/桌面端开发计划表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\repositories\p2p-chat-specification\dev-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubDesktop\p2p-chat-specification\dev-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E0C076-8367-4E93-A166-E347C7CD08A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F82B5F-F019-4DDE-B80D-6A6BF9C8FC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件1编码开发计划表 " sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>星期六
 星期天</t>
@@ -359,6 +359,10 @@
   </si>
   <si>
     <t>刘剑宇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王嘉伟</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1021,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1438,10 +1442,18 @@
       <c r="F14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="G14" s="6">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6">
+        <v>7.07</v>
+      </c>
+      <c r="I14" s="6">
+        <v>7.08</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
